--- a/LarimalTravel/EXCEL/FlightReservations.xlsx
+++ b/LarimalTravel/EXCEL/FlightReservations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>vuelo</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>{"correo":"lorelaill.r@gmail.com","userName":"loren","password":"llll","iD":3242}</t>
+  </si>
+  <si>
+    <t>{"correo":"S","userName":"LO","password":"S","iD":1285}</t>
   </si>
 </sst>
 </file>
@@ -84,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -138,6 +141,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
